--- a/power_attorney/utils/output.xlsx
+++ b/power_attorney/utils/output.xlsx
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6041edfd-88ec-4de7-8f47-6b87eed85e62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2b129717-572e-4154-88f0-9fbc689ec249}">
   <dimension ref="A1:ZT55"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -39512,7 +39512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7a066454-5929-4aff-8755-eef07227c1c4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5bd8f767-bd2b-4a07-8a25-907bf3acb618}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/power_attorney/utils/output.xlsx
+++ b/power_attorney/utils/output.xlsx
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2b129717-572e-4154-88f0-9fbc689ec249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1be05163-6182-46d0-8d3d-7a8b70e1da53}">
   <dimension ref="A1:ZT55"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -39512,7 +39512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5bd8f767-bd2b-4a07-8a25-907bf3acb618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82abf790-4db2-423a-b78a-4a71f79f77dc}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
